--- a/stock_historical_data/1mo/ATGL.NS.xlsx
+++ b/stock_historical_data/1mo/ATGL.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P67"/>
+  <dimension ref="A1:Q68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -518,6 +518,11 @@
           <t>two_line_structure</t>
         </is>
       </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>backup</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -568,6 +573,9 @@
       <c r="P2" t="n">
         <v>0</v>
       </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -618,6 +626,9 @@
       <c r="P3" t="n">
         <v>0</v>
       </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -668,6 +679,9 @@
       <c r="P4" t="n">
         <v>0</v>
       </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -718,6 +732,9 @@
       <c r="P5" t="n">
         <v>0</v>
       </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -768,6 +785,9 @@
       <c r="P6" t="n">
         <v>0</v>
       </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -818,6 +838,9 @@
       <c r="P7" t="n">
         <v>0</v>
       </c>
+      <c r="Q7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -868,6 +891,9 @@
       <c r="P8" t="n">
         <v>0</v>
       </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -918,6 +944,9 @@
       <c r="P9" t="n">
         <v>0</v>
       </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -968,6 +997,9 @@
       <c r="P10" t="n">
         <v>0</v>
       </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -1018,6 +1050,9 @@
       <c r="P11" t="n">
         <v>0</v>
       </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -1068,6 +1103,9 @@
       <c r="P12" t="n">
         <v>0</v>
       </c>
+      <c r="Q12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -1118,6 +1156,9 @@
       <c r="P13" t="n">
         <v>0</v>
       </c>
+      <c r="Q13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -1168,6 +1209,9 @@
       <c r="P14" t="n">
         <v>0</v>
       </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -1218,6 +1262,9 @@
       <c r="P15" t="n">
         <v>0</v>
       </c>
+      <c r="Q15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -1268,6 +1315,9 @@
       <c r="P16" t="n">
         <v>0</v>
       </c>
+      <c r="Q16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -1318,6 +1368,9 @@
       <c r="P17" t="n">
         <v>0</v>
       </c>
+      <c r="Q17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -1368,6 +1421,9 @@
       <c r="P18" t="n">
         <v>0</v>
       </c>
+      <c r="Q18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -1418,6 +1474,9 @@
       <c r="P19" t="n">
         <v>0</v>
       </c>
+      <c r="Q19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -1468,6 +1527,9 @@
       <c r="P20" t="n">
         <v>0</v>
       </c>
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1518,6 +1580,9 @@
       <c r="P21" t="n">
         <v>0</v>
       </c>
+      <c r="Q21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1568,6 +1633,9 @@
       <c r="P22" t="n">
         <v>0</v>
       </c>
+      <c r="Q22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1618,6 +1686,9 @@
       <c r="P23" t="n">
         <v>0</v>
       </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1668,6 +1739,9 @@
       <c r="P24" t="n">
         <v>0</v>
       </c>
+      <c r="Q24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -1718,6 +1792,9 @@
       <c r="P25" t="n">
         <v>0</v>
       </c>
+      <c r="Q25" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -1768,6 +1845,9 @@
       <c r="P26" t="n">
         <v>0</v>
       </c>
+      <c r="Q26" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -1818,6 +1898,9 @@
       <c r="P27" t="n">
         <v>0</v>
       </c>
+      <c r="Q27" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -1868,6 +1951,9 @@
       <c r="P28" t="n">
         <v>0</v>
       </c>
+      <c r="Q28" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -1918,6 +2004,9 @@
       <c r="P29" t="n">
         <v>0</v>
       </c>
+      <c r="Q29" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
@@ -1968,6 +2057,9 @@
       <c r="P30" t="n">
         <v>0</v>
       </c>
+      <c r="Q30" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
@@ -2018,6 +2110,9 @@
       <c r="P31" t="n">
         <v>0</v>
       </c>
+      <c r="Q31" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
@@ -2068,6 +2163,9 @@
       <c r="P32" t="n">
         <v>0</v>
       </c>
+      <c r="Q32" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
@@ -2118,6 +2216,9 @@
       <c r="P33" t="n">
         <v>0</v>
       </c>
+      <c r="Q33" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
@@ -2168,6 +2269,9 @@
       <c r="P34" t="n">
         <v>0</v>
       </c>
+      <c r="Q34" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
@@ -2218,6 +2322,9 @@
       <c r="P35" t="n">
         <v>0</v>
       </c>
+      <c r="Q35" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
@@ -2268,6 +2375,9 @@
       <c r="P36" t="n">
         <v>0</v>
       </c>
+      <c r="Q36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
@@ -2318,6 +2428,9 @@
       <c r="P37" t="n">
         <v>0</v>
       </c>
+      <c r="Q37" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
@@ -2368,6 +2481,9 @@
       <c r="P38" t="n">
         <v>0</v>
       </c>
+      <c r="Q38" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
@@ -2418,6 +2534,9 @@
       <c r="P39" t="n">
         <v>0</v>
       </c>
+      <c r="Q39" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
@@ -2468,6 +2587,9 @@
       <c r="P40" t="n">
         <v>0</v>
       </c>
+      <c r="Q40" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
@@ -2518,6 +2640,9 @@
       <c r="P41" t="n">
         <v>0</v>
       </c>
+      <c r="Q41" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
@@ -2568,6 +2693,9 @@
       <c r="P42" t="n">
         <v>0</v>
       </c>
+      <c r="Q42" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
@@ -2618,6 +2746,9 @@
       <c r="P43" t="n">
         <v>0</v>
       </c>
+      <c r="Q43" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
@@ -2668,6 +2799,9 @@
       <c r="P44" t="n">
         <v>0</v>
       </c>
+      <c r="Q44" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
@@ -2718,6 +2852,9 @@
       <c r="P45" t="n">
         <v>0</v>
       </c>
+      <c r="Q45" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
@@ -2768,6 +2905,9 @@
       <c r="P46" t="n">
         <v>0</v>
       </c>
+      <c r="Q46" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
@@ -2818,6 +2958,9 @@
       <c r="P47" t="n">
         <v>0</v>
       </c>
+      <c r="Q47" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
@@ -2868,6 +3011,9 @@
       <c r="P48" t="n">
         <v>0</v>
       </c>
+      <c r="Q48" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
@@ -2918,6 +3064,9 @@
       <c r="P49" t="n">
         <v>0</v>
       </c>
+      <c r="Q49" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
@@ -2968,6 +3117,9 @@
       <c r="P50" t="n">
         <v>0</v>
       </c>
+      <c r="Q50" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
@@ -3018,6 +3170,9 @@
       <c r="P51" t="n">
         <v>0</v>
       </c>
+      <c r="Q51" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
@@ -3068,6 +3223,9 @@
       <c r="P52" t="n">
         <v>0</v>
       </c>
+      <c r="Q52" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
@@ -3118,6 +3276,9 @@
       <c r="P53" t="n">
         <v>0</v>
       </c>
+      <c r="Q53" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
@@ -3168,6 +3329,9 @@
       <c r="P54" t="n">
         <v>0</v>
       </c>
+      <c r="Q54" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
@@ -3218,6 +3382,9 @@
       <c r="P55" t="n">
         <v>0</v>
       </c>
+      <c r="Q55" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
@@ -3268,6 +3435,9 @@
       <c r="P56" t="n">
         <v>0</v>
       </c>
+      <c r="Q56" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
@@ -3318,6 +3488,9 @@
       <c r="P57" t="n">
         <v>0</v>
       </c>
+      <c r="Q57" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
@@ -3368,6 +3541,9 @@
       <c r="P58" t="n">
         <v>0</v>
       </c>
+      <c r="Q58" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
@@ -3418,6 +3594,9 @@
       <c r="P59" t="n">
         <v>0</v>
       </c>
+      <c r="Q59" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
@@ -3468,6 +3647,9 @@
       <c r="P60" t="n">
         <v>0</v>
       </c>
+      <c r="Q60" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
@@ -3518,6 +3700,9 @@
       <c r="P61" t="n">
         <v>0</v>
       </c>
+      <c r="Q61" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
@@ -3568,6 +3753,9 @@
       <c r="P62" t="n">
         <v>0</v>
       </c>
+      <c r="Q62" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
@@ -3618,6 +3806,9 @@
       <c r="P63" t="n">
         <v>0</v>
       </c>
+      <c r="Q63" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
@@ -3668,6 +3859,9 @@
       <c r="P64" t="n">
         <v>0</v>
       </c>
+      <c r="Q64" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
@@ -3718,6 +3912,9 @@
       <c r="P65" t="n">
         <v>0</v>
       </c>
+      <c r="Q65" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
@@ -3768,6 +3965,9 @@
       <c r="P66" t="n">
         <v>0</v>
       </c>
+      <c r="Q66" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
@@ -3818,6 +4018,60 @@
       <c r="P67" t="n">
         <v>0</v>
       </c>
+      <c r="Q67" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>45444</v>
+      </c>
+      <c r="B68" t="n">
+        <v>1190</v>
+      </c>
+      <c r="C68" t="n">
+        <v>1190</v>
+      </c>
+      <c r="D68" t="n">
+        <v>1190</v>
+      </c>
+      <c r="E68" t="n">
+        <v>1190</v>
+      </c>
+      <c r="F68" t="n">
+        <v>1190</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0</v>
+      </c>
+      <c r="H68" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I68" t="n">
+        <v>6</v>
+      </c>
+      <c r="J68" t="n">
+        <v>1</v>
+      </c>
+      <c r="K68" t="n">
+        <v>0</v>
+      </c>
+      <c r="L68" t="n">
+        <v>0</v>
+      </c>
+      <c r="M68" t="n">
+        <v>0</v>
+      </c>
+      <c r="N68" t="n">
+        <v>22</v>
+      </c>
+      <c r="O68" t="n">
+        <v>0</v>
+      </c>
+      <c r="P68" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q68" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1mo/ATGL.NS.xlsx
+++ b/stock_historical_data/1mo/ATGL.NS.xlsx
@@ -4071,7 +4071,9 @@
       <c r="P68" t="n">
         <v>0</v>
       </c>
-      <c r="Q68" t="inlineStr"/>
+      <c r="Q68" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1mo/ATGL.NS.xlsx
+++ b/stock_historical_data/1mo/ATGL.NS.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q68"/>
+  <dimension ref="A1:Q78"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -526,31 +526,29 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>43435</v>
+        <v>43405</v>
       </c>
       <c r="B2" t="n">
-        <v>99</v>
+        <v>71.60733472606803</v>
       </c>
       <c r="C2" t="n">
-        <v>110.6999969482422</v>
+        <v>114.7706463423941</v>
       </c>
       <c r="D2" t="n">
-        <v>91</v>
+        <v>71.60733472606803</v>
       </c>
       <c r="E2" t="n">
-        <v>100.8000030517578</v>
-      </c>
-      <c r="F2" t="n">
-        <v>100.2767715454102</v>
-      </c>
+        <v>98.21144866943359</v>
+      </c>
+      <c r="F2" t="inlineStr"/>
       <c r="G2" t="n">
-        <v>29287334</v>
+        <v>62006659</v>
       </c>
       <c r="H2" t="n">
         <v>2018</v>
       </c>
       <c r="I2" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J2" t="n">
         <v>1</v>
@@ -565,45 +563,39 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>48</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="O2" t="inlineStr"/>
+      <c r="P2" t="inlineStr"/>
+      <c r="Q2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>43466</v>
+        <v>43435</v>
       </c>
       <c r="B3" t="n">
-        <v>101.25</v>
+        <v>99</v>
       </c>
       <c r="C3" t="n">
-        <v>103.5</v>
+        <v>110.6999969482422</v>
       </c>
       <c r="D3" t="n">
-        <v>88.30000305175781</v>
+        <v>91</v>
       </c>
       <c r="E3" t="n">
-        <v>92.44999694824219</v>
+        <v>100.8000030517578</v>
       </c>
       <c r="F3" t="n">
-        <v>91.97010803222656</v>
+        <v>100.2767715454102</v>
       </c>
       <c r="G3" t="n">
-        <v>13379700</v>
+        <v>29287334</v>
       </c>
       <c r="H3" t="n">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="J3" t="n">
         <v>1</v>
@@ -618,7 +610,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -632,31 +624,31 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>43497</v>
+        <v>43466</v>
       </c>
       <c r="B4" t="n">
-        <v>92.05000305175781</v>
+        <v>101.25</v>
       </c>
       <c r="C4" t="n">
-        <v>103.9000015258789</v>
+        <v>103.5</v>
       </c>
       <c r="D4" t="n">
-        <v>84</v>
+        <v>88.30000305175781</v>
       </c>
       <c r="E4" t="n">
-        <v>102</v>
+        <v>92.44999694824219</v>
       </c>
       <c r="F4" t="n">
-        <v>101.4705429077148</v>
+        <v>91.97010803222656</v>
       </c>
       <c r="G4" t="n">
-        <v>10391496</v>
+        <v>13379700</v>
       </c>
       <c r="H4" t="n">
         <v>2019</v>
       </c>
       <c r="I4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J4" t="n">
         <v>1</v>
@@ -671,7 +663,7 @@
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -685,31 +677,31 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>43525</v>
+        <v>43497</v>
       </c>
       <c r="B5" t="n">
-        <v>102.0999984741211</v>
+        <v>92.05000305175781</v>
       </c>
       <c r="C5" t="n">
-        <v>135.5</v>
+        <v>103.9000015258789</v>
       </c>
       <c r="D5" t="n">
-        <v>100.5999984741211</v>
+        <v>84</v>
       </c>
       <c r="E5" t="n">
-        <v>128.6999969482422</v>
+        <v>102</v>
       </c>
       <c r="F5" t="n">
-        <v>128.0319366455078</v>
+        <v>101.4705429077148</v>
       </c>
       <c r="G5" t="n">
-        <v>14937368</v>
+        <v>10391496</v>
       </c>
       <c r="H5" t="n">
         <v>2019</v>
       </c>
       <c r="I5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J5" t="n">
         <v>1</v>
@@ -724,7 +716,7 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
@@ -738,31 +730,31 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>43556</v>
+        <v>43525</v>
       </c>
       <c r="B6" t="n">
-        <v>129.5</v>
+        <v>102.0999984741211</v>
       </c>
       <c r="C6" t="n">
-        <v>153.8000030517578</v>
+        <v>135.5</v>
       </c>
       <c r="D6" t="n">
-        <v>128.1000061035156</v>
+        <v>100.5999984741211</v>
       </c>
       <c r="E6" t="n">
-        <v>134</v>
+        <v>128.6999969482422</v>
       </c>
       <c r="F6" t="n">
-        <v>133.3044281005859</v>
+        <v>128.0319366455078</v>
       </c>
       <c r="G6" t="n">
-        <v>18395329</v>
+        <v>14937368</v>
       </c>
       <c r="H6" t="n">
         <v>2019</v>
       </c>
       <c r="I6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J6" t="n">
         <v>1</v>
@@ -777,7 +769,7 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -791,31 +783,31 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>43586</v>
+        <v>43556</v>
       </c>
       <c r="B7" t="n">
+        <v>129.5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>153.8000030517578</v>
+      </c>
+      <c r="D7" t="n">
+        <v>128.1000061035156</v>
+      </c>
+      <c r="E7" t="n">
         <v>134</v>
       </c>
-      <c r="C7" t="n">
-        <v>174.5</v>
-      </c>
-      <c r="D7" t="n">
-        <v>113.0500030517578</v>
-      </c>
-      <c r="E7" t="n">
-        <v>164.8500061035156</v>
-      </c>
       <c r="F7" t="n">
-        <v>163.9943084716797</v>
+        <v>133.3044281005859</v>
       </c>
       <c r="G7" t="n">
-        <v>32365838</v>
+        <v>18395329</v>
       </c>
       <c r="H7" t="n">
         <v>2019</v>
       </c>
       <c r="I7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J7" t="n">
         <v>1</v>
@@ -830,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="O7" t="n">
         <v>0</v>
@@ -844,31 +836,31 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>43617</v>
+        <v>43586</v>
       </c>
       <c r="B8" t="n">
-        <v>167</v>
+        <v>134</v>
       </c>
       <c r="C8" t="n">
-        <v>184.1499938964844</v>
+        <v>174.5</v>
       </c>
       <c r="D8" t="n">
-        <v>155.3999938964844</v>
+        <v>113.0500030517578</v>
       </c>
       <c r="E8" t="n">
-        <v>170.1000061035156</v>
+        <v>164.8500061035156</v>
       </c>
       <c r="F8" t="n">
-        <v>169.2170562744141</v>
+        <v>163.9943084716797</v>
       </c>
       <c r="G8" t="n">
-        <v>21768667</v>
+        <v>32365838</v>
       </c>
       <c r="H8" t="n">
         <v>2019</v>
       </c>
       <c r="I8" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J8" t="n">
         <v>1</v>
@@ -883,10 +875,10 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="O8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -897,31 +889,31 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>43647</v>
+        <v>43617</v>
       </c>
       <c r="B9" t="n">
-        <v>169.8000030517578</v>
+        <v>167</v>
       </c>
       <c r="C9" t="n">
-        <v>181</v>
+        <v>184.1499938964844</v>
       </c>
       <c r="D9" t="n">
-        <v>148.5500030517578</v>
+        <v>155.3999938964844</v>
       </c>
       <c r="E9" t="n">
-        <v>153.0500030517578</v>
+        <v>170.1000061035156</v>
       </c>
       <c r="F9" t="n">
-        <v>152.2555694580078</v>
+        <v>169.2170562744141</v>
       </c>
       <c r="G9" t="n">
-        <v>14123685</v>
+        <v>21768667</v>
       </c>
       <c r="H9" t="n">
         <v>2019</v>
       </c>
       <c r="I9" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J9" t="n">
         <v>1</v>
@@ -936,10 +928,10 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -950,31 +942,31 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>43678</v>
+        <v>43647</v>
       </c>
       <c r="B10" t="n">
-        <v>149.6499938964844</v>
+        <v>169.8000030517578</v>
       </c>
       <c r="C10" t="n">
-        <v>166.8999938964844</v>
+        <v>181</v>
       </c>
       <c r="D10" t="n">
-        <v>139</v>
+        <v>148.5500030517578</v>
       </c>
       <c r="E10" t="n">
-        <v>140.4499969482422</v>
+        <v>153.0500030517578</v>
       </c>
       <c r="F10" t="n">
-        <v>139.9391326904297</v>
+        <v>152.2555694580078</v>
       </c>
       <c r="G10" t="n">
-        <v>9355056</v>
+        <v>14123685</v>
       </c>
       <c r="H10" t="n">
         <v>2019</v>
       </c>
       <c r="I10" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J10" t="n">
         <v>1</v>
@@ -989,7 +981,7 @@
         <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="O10" t="n">
         <v>0</v>
@@ -1003,31 +995,31 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>43709</v>
+        <v>43678</v>
       </c>
       <c r="B11" t="n">
+        <v>149.6499938964844</v>
+      </c>
+      <c r="C11" t="n">
+        <v>166.8999938964844</v>
+      </c>
+      <c r="D11" t="n">
+        <v>139</v>
+      </c>
+      <c r="E11" t="n">
         <v>140.4499969482422</v>
       </c>
-      <c r="C11" t="n">
-        <v>144.8000030517578</v>
-      </c>
-      <c r="D11" t="n">
-        <v>128.1000061035156</v>
-      </c>
-      <c r="E11" t="n">
-        <v>129.1999969482422</v>
-      </c>
       <c r="F11" t="n">
-        <v>128.7300567626953</v>
+        <v>139.9391326904297</v>
       </c>
       <c r="G11" t="n">
-        <v>11621930</v>
+        <v>9355056</v>
       </c>
       <c r="H11" t="n">
         <v>2019</v>
       </c>
       <c r="I11" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J11" t="n">
         <v>1</v>
@@ -1042,7 +1034,7 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
@@ -1056,31 +1048,31 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>43739</v>
+        <v>43709</v>
       </c>
       <c r="B12" t="n">
-        <v>130.8999938964844</v>
+        <v>140.4499969482422</v>
       </c>
       <c r="C12" t="n">
-        <v>163</v>
+        <v>144.8000030517578</v>
       </c>
       <c r="D12" t="n">
-        <v>127.4000015258789</v>
+        <v>128.1000061035156</v>
       </c>
       <c r="E12" t="n">
-        <v>147.1000061035156</v>
+        <v>129.1999969482422</v>
       </c>
       <c r="F12" t="n">
-        <v>146.5649566650391</v>
+        <v>128.7300567626953</v>
       </c>
       <c r="G12" t="n">
-        <v>25051765</v>
+        <v>11621930</v>
       </c>
       <c r="H12" t="n">
         <v>2019</v>
       </c>
       <c r="I12" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J12" t="n">
         <v>1</v>
@@ -1095,10 +1087,10 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="O12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -1109,31 +1101,31 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>43770</v>
+        <v>43739</v>
       </c>
       <c r="B13" t="n">
-        <v>147.4499969482422</v>
+        <v>130.8999938964844</v>
       </c>
       <c r="C13" t="n">
-        <v>168.6999969482422</v>
+        <v>163</v>
       </c>
       <c r="D13" t="n">
-        <v>145.9499969482422</v>
+        <v>127.4000015258789</v>
       </c>
       <c r="E13" t="n">
-        <v>161.3500061035156</v>
+        <v>147.1000061035156</v>
       </c>
       <c r="F13" t="n">
-        <v>160.7631225585938</v>
+        <v>146.5649566650391</v>
       </c>
       <c r="G13" t="n">
-        <v>24190865</v>
+        <v>25051765</v>
       </c>
       <c r="H13" t="n">
         <v>2019</v>
       </c>
       <c r="I13" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J13" t="n">
         <v>1</v>
@@ -1148,10 +1140,10 @@
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -1162,31 +1154,31 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>43800</v>
+        <v>43770</v>
       </c>
       <c r="B14" t="n">
-        <v>161.5</v>
+        <v>147.4499969482422</v>
       </c>
       <c r="C14" t="n">
-        <v>167.6999969482422</v>
+        <v>168.6999969482422</v>
       </c>
       <c r="D14" t="n">
-        <v>148.75</v>
+        <v>145.9499969482422</v>
       </c>
       <c r="E14" t="n">
-        <v>162.6999969482422</v>
+        <v>161.3500061035156</v>
       </c>
       <c r="F14" t="n">
-        <v>162.1082000732422</v>
+        <v>160.7631225585938</v>
       </c>
       <c r="G14" t="n">
-        <v>28992428</v>
+        <v>24190865</v>
       </c>
       <c r="H14" t="n">
         <v>2019</v>
       </c>
       <c r="I14" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J14" t="n">
         <v>1</v>
@@ -1201,7 +1193,7 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -1215,31 +1207,31 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>43831</v>
+        <v>43800</v>
       </c>
       <c r="B15" t="n">
-        <v>163.3999938964844</v>
+        <v>161.5</v>
       </c>
       <c r="C15" t="n">
-        <v>185.6000061035156</v>
+        <v>167.6999969482422</v>
       </c>
       <c r="D15" t="n">
         <v>148.75</v>
       </c>
       <c r="E15" t="n">
-        <v>166.3999938964844</v>
+        <v>162.6999969482422</v>
       </c>
       <c r="F15" t="n">
-        <v>165.7947387695312</v>
+        <v>162.1082000732422</v>
       </c>
       <c r="G15" t="n">
-        <v>66972684</v>
+        <v>28992428</v>
       </c>
       <c r="H15" t="n">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="I15" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="J15" t="n">
         <v>1</v>
@@ -1254,7 +1246,7 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -1268,31 +1260,31 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>43862</v>
+        <v>43831</v>
       </c>
       <c r="B16" t="n">
-        <v>165.9499969482422</v>
+        <v>163.3999938964844</v>
       </c>
       <c r="C16" t="n">
-        <v>194.5</v>
+        <v>185.6000061035156</v>
       </c>
       <c r="D16" t="n">
-        <v>125.3000030517578</v>
+        <v>148.75</v>
       </c>
       <c r="E16" t="n">
-        <v>134.0500030517578</v>
+        <v>166.3999938964844</v>
       </c>
       <c r="F16" t="n">
-        <v>133.5624237060547</v>
+        <v>165.7947387695312</v>
       </c>
       <c r="G16" t="n">
-        <v>69573556</v>
+        <v>66972684</v>
       </c>
       <c r="H16" t="n">
         <v>2020</v>
       </c>
       <c r="I16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J16" t="n">
         <v>1</v>
@@ -1307,10 +1299,10 @@
         <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -1321,31 +1313,31 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>43891</v>
+        <v>43862</v>
       </c>
       <c r="B17" t="n">
-        <v>140.3000030517578</v>
+        <v>165.9499969482422</v>
       </c>
       <c r="C17" t="n">
-        <v>146.3999938964844</v>
+        <v>194.5</v>
       </c>
       <c r="D17" t="n">
-        <v>76.59999847412109</v>
+        <v>125.3000030517578</v>
       </c>
       <c r="E17" t="n">
-        <v>86.34999847412109</v>
+        <v>134.0500030517578</v>
       </c>
       <c r="F17" t="n">
-        <v>86.03591156005859</v>
+        <v>133.5624237060547</v>
       </c>
       <c r="G17" t="n">
-        <v>48547916</v>
+        <v>69573556</v>
       </c>
       <c r="H17" t="n">
         <v>2020</v>
       </c>
       <c r="I17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J17" t="n">
         <v>1</v>
@@ -1360,10 +1352,10 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="O17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -1374,31 +1366,31 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>43922</v>
+        <v>43891</v>
       </c>
       <c r="B18" t="n">
-        <v>86.90000152587891</v>
+        <v>140.3000030517578</v>
       </c>
       <c r="C18" t="n">
-        <v>109.9000015258789</v>
+        <v>146.3999938964844</v>
       </c>
       <c r="D18" t="n">
-        <v>85</v>
+        <v>76.59999847412109</v>
       </c>
       <c r="E18" t="n">
-        <v>105.3499984741211</v>
+        <v>86.34999847412109</v>
       </c>
       <c r="F18" t="n">
-        <v>105.2795791625977</v>
+        <v>86.03591156005859</v>
       </c>
       <c r="G18" t="n">
-        <v>40660652</v>
+        <v>48547916</v>
       </c>
       <c r="H18" t="n">
         <v>2020</v>
       </c>
       <c r="I18" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J18" t="n">
         <v>1</v>
@@ -1413,10 +1405,10 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -1427,31 +1419,31 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>43952</v>
+        <v>43922</v>
       </c>
       <c r="B19" t="n">
+        <v>86.90000152587891</v>
+      </c>
+      <c r="C19" t="n">
+        <v>109.9000015258789</v>
+      </c>
+      <c r="D19" t="n">
+        <v>85</v>
+      </c>
+      <c r="E19" t="n">
         <v>105.3499984741211</v>
       </c>
-      <c r="C19" t="n">
-        <v>121.4000015258789</v>
-      </c>
-      <c r="D19" t="n">
-        <v>96.59999847412109</v>
-      </c>
-      <c r="E19" t="n">
-        <v>117.4499969482422</v>
-      </c>
       <c r="F19" t="n">
-        <v>117.3714904785156</v>
+        <v>105.2795791625977</v>
       </c>
       <c r="G19" t="n">
-        <v>52172059</v>
+        <v>40660652</v>
       </c>
       <c r="H19" t="n">
         <v>2020</v>
       </c>
       <c r="I19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J19" t="n">
         <v>1</v>
@@ -1466,7 +1458,7 @@
         <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
@@ -1480,31 +1472,31 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>43983</v>
+        <v>43952</v>
       </c>
       <c r="B20" t="n">
-        <v>119.5999984741211</v>
+        <v>105.3499984741211</v>
       </c>
       <c r="C20" t="n">
-        <v>176.6499938964844</v>
+        <v>121.4000015258789</v>
       </c>
       <c r="D20" t="n">
-        <v>116.6999969482422</v>
+        <v>96.59999847412109</v>
       </c>
       <c r="E20" t="n">
-        <v>152.6000061035156</v>
+        <v>117.4499969482422</v>
       </c>
       <c r="F20" t="n">
-        <v>152.4979858398438</v>
+        <v>117.3714904785156</v>
       </c>
       <c r="G20" t="n">
-        <v>92371361</v>
+        <v>52172059</v>
       </c>
       <c r="H20" t="n">
         <v>2020</v>
       </c>
       <c r="I20" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J20" t="n">
         <v>1</v>
@@ -1519,7 +1511,7 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
@@ -1528,36 +1520,36 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>44013</v>
+        <v>43983</v>
       </c>
       <c r="B21" t="n">
-        <v>151.25</v>
+        <v>119.5999984741211</v>
       </c>
       <c r="C21" t="n">
-        <v>167.1000061035156</v>
+        <v>176.6499938964844</v>
       </c>
       <c r="D21" t="n">
-        <v>143.1000061035156</v>
+        <v>116.6999969482422</v>
       </c>
       <c r="E21" t="n">
-        <v>153.75</v>
+        <v>152.6000061035156</v>
       </c>
       <c r="F21" t="n">
-        <v>153.647216796875</v>
+        <v>152.4979858398438</v>
       </c>
       <c r="G21" t="n">
-        <v>33449661</v>
+        <v>92371361</v>
       </c>
       <c r="H21" t="n">
         <v>2020</v>
       </c>
       <c r="I21" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J21" t="n">
         <v>1</v>
@@ -1572,7 +1564,7 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -1581,36 +1573,36 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>44044</v>
+        <v>44013</v>
       </c>
       <c r="B22" t="n">
-        <v>153.1000061035156</v>
+        <v>151.25</v>
       </c>
       <c r="C22" t="n">
-        <v>196.5</v>
+        <v>167.1000061035156</v>
       </c>
       <c r="D22" t="n">
-        <v>151.5</v>
+        <v>143.1000061035156</v>
       </c>
       <c r="E22" t="n">
-        <v>169.75</v>
+        <v>153.75</v>
       </c>
       <c r="F22" t="n">
-        <v>169.6365203857422</v>
+        <v>153.647216796875</v>
       </c>
       <c r="G22" t="n">
-        <v>53246968</v>
+        <v>33449661</v>
       </c>
       <c r="H22" t="n">
         <v>2020</v>
       </c>
       <c r="I22" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J22" t="n">
         <v>1</v>
@@ -1625,7 +1617,7 @@
         <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
@@ -1634,36 +1626,36 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>44075</v>
+        <v>44044</v>
       </c>
       <c r="B23" t="n">
-        <v>171.6999969482422</v>
+        <v>153.1000061035156</v>
       </c>
       <c r="C23" t="n">
-        <v>215</v>
+        <v>196.5</v>
       </c>
       <c r="D23" t="n">
-        <v>168.25</v>
+        <v>151.5</v>
       </c>
       <c r="E23" t="n">
-        <v>189.1999969482422</v>
+        <v>169.75</v>
       </c>
       <c r="F23" t="n">
-        <v>189.0735168457031</v>
+        <v>169.6365203857422</v>
       </c>
       <c r="G23" t="n">
-        <v>67696766</v>
+        <v>53246968</v>
       </c>
       <c r="H23" t="n">
         <v>2020</v>
       </c>
       <c r="I23" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J23" t="n">
         <v>1</v>
@@ -1678,7 +1670,7 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
@@ -1692,31 +1684,31 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>44105</v>
+        <v>44075</v>
       </c>
       <c r="B24" t="n">
-        <v>192.9499969482422</v>
+        <v>171.6999969482422</v>
       </c>
       <c r="C24" t="n">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="D24" t="n">
-        <v>180.25</v>
+        <v>168.25</v>
       </c>
       <c r="E24" t="n">
-        <v>220.5</v>
+        <v>189.1999969482422</v>
       </c>
       <c r="F24" t="n">
-        <v>220.3526000976562</v>
+        <v>189.0735168457031</v>
       </c>
       <c r="G24" t="n">
-        <v>33146600</v>
+        <v>67696766</v>
       </c>
       <c r="H24" t="n">
         <v>2020</v>
       </c>
       <c r="I24" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J24" t="n">
         <v>1</v>
@@ -1731,7 +1723,7 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -1745,31 +1737,31 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>44136</v>
+        <v>44105</v>
       </c>
       <c r="B25" t="n">
-        <v>221.3999938964844</v>
+        <v>192.9499969482422</v>
       </c>
       <c r="C25" t="n">
-        <v>365.75</v>
+        <v>224</v>
       </c>
       <c r="D25" t="n">
-        <v>212</v>
+        <v>180.25</v>
       </c>
       <c r="E25" t="n">
-        <v>347.8999938964844</v>
+        <v>220.5</v>
       </c>
       <c r="F25" t="n">
-        <v>347.6674194335938</v>
+        <v>220.3526000976562</v>
       </c>
       <c r="G25" t="n">
-        <v>121502975</v>
+        <v>33146600</v>
       </c>
       <c r="H25" t="n">
         <v>2020</v>
       </c>
       <c r="I25" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J25" t="n">
         <v>1</v>
@@ -1784,7 +1776,7 @@
         <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="O25" t="n">
         <v>0</v>
@@ -1798,31 +1790,31 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>44166</v>
+        <v>44136</v>
       </c>
       <c r="B26" t="n">
-        <v>358.8999938964844</v>
+        <v>221.3999938964844</v>
       </c>
       <c r="C26" t="n">
-        <v>389.6499938964844</v>
+        <v>365.75</v>
       </c>
       <c r="D26" t="n">
-        <v>315</v>
+        <v>212</v>
       </c>
       <c r="E26" t="n">
-        <v>375.6000061035156</v>
+        <v>347.8999938964844</v>
       </c>
       <c r="F26" t="n">
-        <v>375.3489379882812</v>
+        <v>347.6674194335938</v>
       </c>
       <c r="G26" t="n">
-        <v>67384297</v>
+        <v>121502975</v>
       </c>
       <c r="H26" t="n">
         <v>2020</v>
       </c>
       <c r="I26" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J26" t="n">
         <v>1</v>
@@ -1837,7 +1829,7 @@
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
@@ -1851,31 +1843,31 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>44197</v>
+        <v>44166</v>
       </c>
       <c r="B27" t="n">
-        <v>377.3999938964844</v>
+        <v>358.8999938964844</v>
       </c>
       <c r="C27" t="n">
-        <v>389.3999938964844</v>
+        <v>389.6499938964844</v>
       </c>
       <c r="D27" t="n">
-        <v>341</v>
+        <v>315</v>
       </c>
       <c r="E27" t="n">
-        <v>381.0499877929688</v>
+        <v>375.6000061035156</v>
       </c>
       <c r="F27" t="n">
-        <v>380.7952880859375</v>
+        <v>375.3489379882812</v>
       </c>
       <c r="G27" t="n">
-        <v>23510282</v>
+        <v>67384297</v>
       </c>
       <c r="H27" t="n">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="I27" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="J27" t="n">
         <v>1</v>
@@ -1890,7 +1882,7 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -1904,31 +1896,31 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>44228</v>
+        <v>44197</v>
       </c>
       <c r="B28" t="n">
-        <v>385.25</v>
+        <v>377.3999938964844</v>
       </c>
       <c r="C28" t="n">
-        <v>542.7999877929688</v>
+        <v>389.3999938964844</v>
       </c>
       <c r="D28" t="n">
-        <v>376.2000122070312</v>
+        <v>341</v>
       </c>
       <c r="E28" t="n">
-        <v>512.2000122070312</v>
+        <v>381.0499877929688</v>
       </c>
       <c r="F28" t="n">
-        <v>511.8576049804688</v>
+        <v>380.7952880859375</v>
       </c>
       <c r="G28" t="n">
-        <v>42807268</v>
+        <v>23510282</v>
       </c>
       <c r="H28" t="n">
         <v>2021</v>
       </c>
       <c r="I28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J28" t="n">
         <v>1</v>
@@ -1943,7 +1935,7 @@
         <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>5</v>
+        <v>53</v>
       </c>
       <c r="O28" t="n">
         <v>0</v>
@@ -1957,31 +1949,31 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>44256</v>
+        <v>44228</v>
       </c>
       <c r="B29" t="n">
-        <v>523.2999877929688</v>
+        <v>385.25</v>
       </c>
       <c r="C29" t="n">
-        <v>971.3499755859375</v>
+        <v>542.7999877929688</v>
       </c>
       <c r="D29" t="n">
-        <v>516.5</v>
+        <v>376.2000122070312</v>
       </c>
       <c r="E29" t="n">
-        <v>961.25</v>
+        <v>512.2000122070312</v>
       </c>
       <c r="F29" t="n">
-        <v>960.607421875</v>
+        <v>511.8576049804688</v>
       </c>
       <c r="G29" t="n">
-        <v>58841354</v>
+        <v>42807268</v>
       </c>
       <c r="H29" t="n">
         <v>2021</v>
       </c>
       <c r="I29" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J29" t="n">
         <v>1</v>
@@ -1996,7 +1988,7 @@
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
@@ -2010,31 +2002,31 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>44287</v>
+        <v>44256</v>
       </c>
       <c r="B30" t="n">
-        <v>985</v>
+        <v>523.2999877929688</v>
       </c>
       <c r="C30" t="n">
-        <v>1249.949951171875</v>
+        <v>971.3499755859375</v>
       </c>
       <c r="D30" t="n">
-        <v>950</v>
+        <v>516.5</v>
       </c>
       <c r="E30" t="n">
-        <v>1150.75</v>
+        <v>961.25</v>
       </c>
       <c r="F30" t="n">
-        <v>1149.980712890625</v>
+        <v>960.607421875</v>
       </c>
       <c r="G30" t="n">
-        <v>50396678</v>
+        <v>58841354</v>
       </c>
       <c r="H30" t="n">
         <v>2021</v>
       </c>
       <c r="I30" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J30" t="n">
         <v>1</v>
@@ -2049,7 +2041,7 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -2063,31 +2055,31 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>44317</v>
+        <v>44287</v>
       </c>
       <c r="B31" t="n">
-        <v>1135</v>
+        <v>985</v>
       </c>
       <c r="C31" t="n">
-        <v>1400</v>
+        <v>1249.949951171875</v>
       </c>
       <c r="D31" t="n">
-        <v>1120.199951171875</v>
+        <v>950</v>
       </c>
       <c r="E31" t="n">
-        <v>1348.849975585938</v>
+        <v>1150.75</v>
       </c>
       <c r="F31" t="n">
-        <v>1347.9482421875</v>
+        <v>1149.980712890625</v>
       </c>
       <c r="G31" t="n">
-        <v>75606725</v>
+        <v>50396678</v>
       </c>
       <c r="H31" t="n">
         <v>2021</v>
       </c>
       <c r="I31" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J31" t="n">
         <v>1</v>
@@ -2102,7 +2094,7 @@
         <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="O31" t="n">
         <v>0</v>
@@ -2116,31 +2108,31 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>44348</v>
+        <v>44317</v>
       </c>
       <c r="B32" t="n">
-        <v>1360</v>
+        <v>1135</v>
       </c>
       <c r="C32" t="n">
-        <v>1679</v>
+        <v>1400</v>
       </c>
       <c r="D32" t="n">
-        <v>1019.849975585938</v>
+        <v>1120.199951171875</v>
       </c>
       <c r="E32" t="n">
-        <v>1019.849975585938</v>
+        <v>1348.849975585938</v>
       </c>
       <c r="F32" t="n">
-        <v>1019.168273925781</v>
+        <v>1347.9482421875</v>
       </c>
       <c r="G32" t="n">
-        <v>20356968</v>
+        <v>75606725</v>
       </c>
       <c r="H32" t="n">
         <v>2021</v>
       </c>
       <c r="I32" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J32" t="n">
         <v>1</v>
@@ -2155,10 +2147,10 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="O32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -2169,31 +2161,31 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>44378</v>
+        <v>44348</v>
       </c>
       <c r="B33" t="n">
-        <v>968.9000244140625</v>
+        <v>1360</v>
       </c>
       <c r="C33" t="n">
-        <v>968.9000244140625</v>
+        <v>1679</v>
       </c>
       <c r="D33" t="n">
-        <v>774.9500122070312</v>
+        <v>1019.849975585938</v>
       </c>
       <c r="E33" t="n">
-        <v>892.5499877929688</v>
+        <v>1019.849975585938</v>
       </c>
       <c r="F33" t="n">
-        <v>892.12255859375</v>
+        <v>1019.168273925781</v>
       </c>
       <c r="G33" t="n">
-        <v>7746662</v>
+        <v>20356968</v>
       </c>
       <c r="H33" t="n">
         <v>2021</v>
       </c>
       <c r="I33" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J33" t="n">
         <v>1</v>
@@ -2208,10 +2200,10 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="O33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -2222,31 +2214,31 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>44409</v>
+        <v>44378</v>
       </c>
       <c r="B34" t="n">
+        <v>968.9000244140625</v>
+      </c>
+      <c r="C34" t="n">
+        <v>968.9000244140625</v>
+      </c>
+      <c r="D34" t="n">
+        <v>774.9500122070312</v>
+      </c>
+      <c r="E34" t="n">
         <v>892.5499877929688</v>
       </c>
-      <c r="C34" t="n">
-        <v>1452.550048828125</v>
-      </c>
-      <c r="D34" t="n">
-        <v>843</v>
-      </c>
-      <c r="E34" t="n">
-        <v>1452.5</v>
-      </c>
       <c r="F34" t="n">
-        <v>1451.804443359375</v>
+        <v>892.12255859375</v>
       </c>
       <c r="G34" t="n">
-        <v>5525564</v>
+        <v>7746662</v>
       </c>
       <c r="H34" t="n">
         <v>2021</v>
       </c>
       <c r="I34" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J34" t="n">
         <v>1</v>
@@ -2261,10 +2253,10 @@
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P34" t="n">
         <v>0</v>
@@ -2275,31 +2267,31 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>44440</v>
+        <v>44409</v>
       </c>
       <c r="B35" t="n">
-        <v>1525.099975585938</v>
+        <v>892.5499877929688</v>
       </c>
       <c r="C35" t="n">
-        <v>1525.099975585938</v>
+        <v>1452.550048828125</v>
       </c>
       <c r="D35" t="n">
-        <v>1267.550048828125</v>
+        <v>843</v>
       </c>
       <c r="E35" t="n">
-        <v>1423.150024414062</v>
+        <v>1452.5</v>
       </c>
       <c r="F35" t="n">
-        <v>1422.468505859375</v>
+        <v>1451.804443359375</v>
       </c>
       <c r="G35" t="n">
-        <v>9249026</v>
+        <v>5525564</v>
       </c>
       <c r="H35" t="n">
         <v>2021</v>
       </c>
       <c r="I35" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J35" t="n">
         <v>1</v>
@@ -2314,7 +2306,7 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
@@ -2328,31 +2320,31 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>44470</v>
+        <v>44440</v>
       </c>
       <c r="B36" t="n">
-        <v>1425</v>
+        <v>1525.099975585938</v>
       </c>
       <c r="C36" t="n">
-        <v>1483.699951171875</v>
+        <v>1525.099975585938</v>
       </c>
       <c r="D36" t="n">
-        <v>1345</v>
+        <v>1267.550048828125</v>
       </c>
       <c r="E36" t="n">
-        <v>1439.449951171875</v>
+        <v>1423.150024414062</v>
       </c>
       <c r="F36" t="n">
-        <v>1438.760620117188</v>
+        <v>1422.468505859375</v>
       </c>
       <c r="G36" t="n">
-        <v>8034430</v>
+        <v>9249026</v>
       </c>
       <c r="H36" t="n">
         <v>2021</v>
       </c>
       <c r="I36" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J36" t="n">
         <v>1</v>
@@ -2367,7 +2359,7 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -2376,36 +2368,36 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>44501</v>
+        <v>44470</v>
       </c>
       <c r="B37" t="n">
-        <v>1374.550048828125</v>
+        <v>1425</v>
       </c>
       <c r="C37" t="n">
-        <v>1715</v>
+        <v>1483.699951171875</v>
       </c>
       <c r="D37" t="n">
-        <v>1374.550048828125</v>
+        <v>1345</v>
       </c>
       <c r="E37" t="n">
-        <v>1599.849975585938</v>
+        <v>1439.449951171875</v>
       </c>
       <c r="F37" t="n">
-        <v>1599.083862304688</v>
+        <v>1438.760620117188</v>
       </c>
       <c r="G37" t="n">
-        <v>8943590</v>
+        <v>8034430</v>
       </c>
       <c r="H37" t="n">
         <v>2021</v>
       </c>
       <c r="I37" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J37" t="n">
         <v>1</v>
@@ -2420,7 +2412,7 @@
         <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="O37" t="n">
         <v>0</v>
@@ -2429,36 +2421,36 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>44531</v>
+        <v>44501</v>
       </c>
       <c r="B38" t="n">
-        <v>1620</v>
+        <v>1374.550048828125</v>
       </c>
       <c r="C38" t="n">
-        <v>1987.099975585938</v>
+        <v>1715</v>
       </c>
       <c r="D38" t="n">
-        <v>1513.150024414062</v>
+        <v>1374.550048828125</v>
       </c>
       <c r="E38" t="n">
-        <v>1721.800048828125</v>
+        <v>1599.849975585938</v>
       </c>
       <c r="F38" t="n">
-        <v>1720.975463867188</v>
+        <v>1599.083862304688</v>
       </c>
       <c r="G38" t="n">
-        <v>4452880</v>
+        <v>8943590</v>
       </c>
       <c r="H38" t="n">
         <v>2021</v>
       </c>
       <c r="I38" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J38" t="n">
         <v>1</v>
@@ -2473,7 +2465,7 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
@@ -2482,36 +2474,36 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>44562</v>
+        <v>44531</v>
       </c>
       <c r="B39" t="n">
-        <v>1685.050048828125</v>
+        <v>1620</v>
       </c>
       <c r="C39" t="n">
-        <v>1890</v>
+        <v>1987.099975585938</v>
       </c>
       <c r="D39" t="n">
-        <v>1685.050048828125</v>
+        <v>1513.150024414062</v>
       </c>
       <c r="E39" t="n">
-        <v>1821.25</v>
+        <v>1721.800048828125</v>
       </c>
       <c r="F39" t="n">
-        <v>1820.377807617188</v>
+        <v>1720.975463867188</v>
       </c>
       <c r="G39" t="n">
-        <v>3910994</v>
+        <v>4452880</v>
       </c>
       <c r="H39" t="n">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="I39" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="J39" t="n">
         <v>1</v>
@@ -2526,7 +2518,7 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -2540,31 +2532,31 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>44593</v>
+        <v>44562</v>
       </c>
       <c r="B40" t="n">
-        <v>1830</v>
+        <v>1685.050048828125</v>
       </c>
       <c r="C40" t="n">
-        <v>1880</v>
+        <v>1890</v>
       </c>
       <c r="D40" t="n">
-        <v>1510.300048828125</v>
+        <v>1685.050048828125</v>
       </c>
       <c r="E40" t="n">
-        <v>1588.5</v>
+        <v>1821.25</v>
       </c>
       <c r="F40" t="n">
-        <v>1587.7392578125</v>
+        <v>1820.377807617188</v>
       </c>
       <c r="G40" t="n">
-        <v>3520884</v>
+        <v>3910994</v>
       </c>
       <c r="H40" t="n">
         <v>2022</v>
       </c>
       <c r="I40" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J40" t="n">
         <v>1</v>
@@ -2579,7 +2571,7 @@
         <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>5</v>
+        <v>52</v>
       </c>
       <c r="O40" t="n">
         <v>0</v>
@@ -2593,31 +2585,31 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>44621</v>
+        <v>44593</v>
       </c>
       <c r="B41" t="n">
+        <v>1830</v>
+      </c>
+      <c r="C41" t="n">
+        <v>1880</v>
+      </c>
+      <c r="D41" t="n">
+        <v>1510.300048828125</v>
+      </c>
+      <c r="E41" t="n">
         <v>1588.5</v>
       </c>
-      <c r="C41" t="n">
-        <v>2242.89990234375</v>
-      </c>
-      <c r="D41" t="n">
-        <v>1550.300048828125</v>
-      </c>
-      <c r="E41" t="n">
-        <v>2149.800048828125</v>
-      </c>
       <c r="F41" t="n">
-        <v>2148.7705078125</v>
+        <v>1587.7392578125</v>
       </c>
       <c r="G41" t="n">
-        <v>5678050</v>
+        <v>3520884</v>
       </c>
       <c r="H41" t="n">
         <v>2022</v>
       </c>
       <c r="I41" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J41" t="n">
         <v>1</v>
@@ -2632,7 +2624,7 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
@@ -2646,31 +2638,31 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>44652</v>
+        <v>44621</v>
       </c>
       <c r="B42" t="n">
-        <v>2178.550048828125</v>
+        <v>1588.5</v>
       </c>
       <c r="C42" t="n">
-        <v>2740</v>
+        <v>2242.89990234375</v>
       </c>
       <c r="D42" t="n">
-        <v>2155.64990234375</v>
+        <v>1550.300048828125</v>
       </c>
       <c r="E42" t="n">
-        <v>2450.949951171875</v>
+        <v>2149.800048828125</v>
       </c>
       <c r="F42" t="n">
-        <v>2449.7763671875</v>
+        <v>2148.7705078125</v>
       </c>
       <c r="G42" t="n">
-        <v>7293935</v>
+        <v>5678050</v>
       </c>
       <c r="H42" t="n">
         <v>2022</v>
       </c>
       <c r="I42" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J42" t="n">
         <v>1</v>
@@ -2685,7 +2677,7 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -2699,31 +2691,31 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>44682</v>
+        <v>44652</v>
       </c>
       <c r="B43" t="n">
-        <v>2451</v>
+        <v>2178.550048828125</v>
       </c>
       <c r="C43" t="n">
-        <v>2624</v>
+        <v>2740</v>
       </c>
       <c r="D43" t="n">
-        <v>2145</v>
+        <v>2155.64990234375</v>
       </c>
       <c r="E43" t="n">
-        <v>2397.89990234375</v>
+        <v>2450.949951171875</v>
       </c>
       <c r="F43" t="n">
-        <v>2396.751708984375</v>
+        <v>2449.7763671875</v>
       </c>
       <c r="G43" t="n">
-        <v>8873354</v>
+        <v>7293935</v>
       </c>
       <c r="H43" t="n">
         <v>2022</v>
       </c>
       <c r="I43" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J43" t="n">
         <v>1</v>
@@ -2738,7 +2730,7 @@
         <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="O43" t="n">
         <v>0</v>
@@ -2752,31 +2744,31 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>44713</v>
+        <v>44682</v>
       </c>
       <c r="B44" t="n">
-        <v>2380.89990234375</v>
+        <v>2451</v>
       </c>
       <c r="C44" t="n">
-        <v>2585.60009765625</v>
+        <v>2624</v>
       </c>
       <c r="D44" t="n">
-        <v>1948</v>
+        <v>2145</v>
       </c>
       <c r="E44" t="n">
-        <v>2392.89990234375</v>
+        <v>2397.89990234375</v>
       </c>
       <c r="F44" t="n">
-        <v>2391.75390625</v>
+        <v>2396.751708984375</v>
       </c>
       <c r="G44" t="n">
-        <v>11697194</v>
+        <v>8873354</v>
       </c>
       <c r="H44" t="n">
         <v>2022</v>
       </c>
       <c r="I44" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J44" t="n">
         <v>1</v>
@@ -2791,7 +2783,7 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
@@ -2805,31 +2797,31 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>44743</v>
+        <v>44713</v>
       </c>
       <c r="B45" t="n">
-        <v>2392.550048828125</v>
+        <v>2380.89990234375</v>
       </c>
       <c r="C45" t="n">
-        <v>3158</v>
+        <v>2585.60009765625</v>
       </c>
       <c r="D45" t="n">
-        <v>2362.449951171875</v>
+        <v>1948</v>
       </c>
       <c r="E45" t="n">
-        <v>3127.199951171875</v>
+        <v>2392.89990234375</v>
       </c>
       <c r="F45" t="n">
-        <v>3125.702392578125</v>
+        <v>2391.75390625</v>
       </c>
       <c r="G45" t="n">
-        <v>9508208</v>
+        <v>11697194</v>
       </c>
       <c r="H45" t="n">
         <v>2022</v>
       </c>
       <c r="I45" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J45" t="n">
         <v>1</v>
@@ -2844,7 +2836,7 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -2858,31 +2850,31 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>44774</v>
+        <v>44743</v>
       </c>
       <c r="B46" t="n">
-        <v>3144</v>
+        <v>2392.550048828125</v>
       </c>
       <c r="C46" t="n">
-        <v>3816</v>
+        <v>3158</v>
       </c>
       <c r="D46" t="n">
-        <v>2811</v>
+        <v>2362.449951171875</v>
       </c>
       <c r="E46" t="n">
-        <v>3744.949951171875</v>
+        <v>3127.199951171875</v>
       </c>
       <c r="F46" t="n">
-        <v>3743.5068359375</v>
+        <v>3125.702392578125</v>
       </c>
       <c r="G46" t="n">
-        <v>9978331</v>
+        <v>9508208</v>
       </c>
       <c r="H46" t="n">
         <v>2022</v>
       </c>
       <c r="I46" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J46" t="n">
         <v>1</v>
@@ -2897,7 +2889,7 @@
         <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="O46" t="n">
         <v>0</v>
@@ -2911,31 +2903,31 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>44805</v>
+        <v>44774</v>
       </c>
       <c r="B47" t="n">
-        <v>3684.050048828125</v>
+        <v>3144</v>
       </c>
       <c r="C47" t="n">
-        <v>3764.949951171875</v>
+        <v>3816</v>
       </c>
       <c r="D47" t="n">
-        <v>3251.10009765625</v>
+        <v>2811</v>
       </c>
       <c r="E47" t="n">
-        <v>3339.85009765625</v>
+        <v>3744.949951171875</v>
       </c>
       <c r="F47" t="n">
-        <v>3338.56298828125</v>
+        <v>3743.5068359375</v>
       </c>
       <c r="G47" t="n">
-        <v>9394452</v>
+        <v>9978331</v>
       </c>
       <c r="H47" t="n">
         <v>2022</v>
       </c>
       <c r="I47" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J47" t="n">
         <v>1</v>
@@ -2950,7 +2942,7 @@
         <v>0</v>
       </c>
       <c r="N47" t="n">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="O47" t="n">
         <v>0</v>
@@ -2964,31 +2956,31 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>44835</v>
+        <v>44805</v>
       </c>
       <c r="B48" t="n">
-        <v>3329.89990234375</v>
+        <v>3684.050048828125</v>
       </c>
       <c r="C48" t="n">
-        <v>3658.699951171875</v>
+        <v>3764.949951171875</v>
       </c>
       <c r="D48" t="n">
-        <v>2965.64990234375</v>
+        <v>3251.10009765625</v>
       </c>
       <c r="E48" t="n">
-        <v>3602.85009765625</v>
+        <v>3339.85009765625</v>
       </c>
       <c r="F48" t="n">
-        <v>3601.461669921875</v>
+        <v>3338.56298828125</v>
       </c>
       <c r="G48" t="n">
-        <v>6482202</v>
+        <v>9394452</v>
       </c>
       <c r="H48" t="n">
         <v>2022</v>
       </c>
       <c r="I48" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J48" t="n">
         <v>1</v>
@@ -3003,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="N48" t="n">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="O48" t="n">
         <v>0</v>
@@ -3017,31 +3009,31 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>44866</v>
+        <v>44835</v>
       </c>
       <c r="B49" t="n">
-        <v>3620.89990234375</v>
+        <v>3329.89990234375</v>
       </c>
       <c r="C49" t="n">
-        <v>3912.39990234375</v>
+        <v>3658.699951171875</v>
       </c>
       <c r="D49" t="n">
-        <v>3501</v>
+        <v>2965.64990234375</v>
       </c>
       <c r="E49" t="n">
-        <v>3632.75</v>
+        <v>3602.85009765625</v>
       </c>
       <c r="F49" t="n">
-        <v>3631.35009765625</v>
+        <v>3601.461669921875</v>
       </c>
       <c r="G49" t="n">
-        <v>5956601</v>
+        <v>6482202</v>
       </c>
       <c r="H49" t="n">
         <v>2022</v>
       </c>
       <c r="I49" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J49" t="n">
         <v>1</v>
@@ -3056,7 +3048,7 @@
         <v>0</v>
       </c>
       <c r="N49" t="n">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="O49" t="n">
         <v>0</v>
@@ -3070,31 +3062,31 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>44896</v>
+        <v>44866</v>
       </c>
       <c r="B50" t="n">
-        <v>3650.949951171875</v>
+        <v>3620.89990234375</v>
       </c>
       <c r="C50" t="n">
-        <v>3999</v>
+        <v>3912.39990234375</v>
       </c>
       <c r="D50" t="n">
-        <v>3100.10009765625</v>
+        <v>3501</v>
       </c>
       <c r="E50" t="n">
-        <v>3692.85009765625</v>
+        <v>3632.75</v>
       </c>
       <c r="F50" t="n">
-        <v>3691.427001953125</v>
+        <v>3631.35009765625</v>
       </c>
       <c r="G50" t="n">
-        <v>7009525</v>
+        <v>5956601</v>
       </c>
       <c r="H50" t="n">
         <v>2022</v>
       </c>
       <c r="I50" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J50" t="n">
         <v>1</v>
@@ -3109,7 +3101,7 @@
         <v>0</v>
       </c>
       <c r="N50" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="O50" t="n">
         <v>0</v>
@@ -3123,31 +3115,31 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>44927</v>
+        <v>44896</v>
       </c>
       <c r="B51" t="n">
-        <v>3700</v>
+        <v>3650.949951171875</v>
       </c>
       <c r="C51" t="n">
-        <v>4000</v>
+        <v>3999</v>
       </c>
       <c r="D51" t="n">
-        <v>2108.199951171875</v>
+        <v>3100.10009765625</v>
       </c>
       <c r="E51" t="n">
-        <v>2108.199951171875</v>
+        <v>3692.85009765625</v>
       </c>
       <c r="F51" t="n">
-        <v>2107.387451171875</v>
+        <v>3691.427001953125</v>
       </c>
       <c r="G51" t="n">
-        <v>11393431</v>
+        <v>7009525</v>
       </c>
       <c r="H51" t="n">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="I51" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="J51" t="n">
         <v>1</v>
@@ -3162,10 +3154,10 @@
         <v>0</v>
       </c>
       <c r="N51" t="n">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="O51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P51" t="n">
         <v>0</v>
@@ -3176,31 +3168,31 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>44958</v>
+        <v>44927</v>
       </c>
       <c r="B52" t="n">
-        <v>1951</v>
+        <v>3700</v>
       </c>
       <c r="C52" t="n">
-        <v>1998.800048828125</v>
+        <v>4000</v>
       </c>
       <c r="D52" t="n">
-        <v>678.5499877929688</v>
+        <v>2108.199951171875</v>
       </c>
       <c r="E52" t="n">
-        <v>678.5499877929688</v>
+        <v>2108.199951171875</v>
       </c>
       <c r="F52" t="n">
-        <v>678.2885131835938</v>
+        <v>2107.387451171875</v>
       </c>
       <c r="G52" t="n">
-        <v>14934133</v>
+        <v>11393431</v>
       </c>
       <c r="H52" t="n">
         <v>2023</v>
       </c>
       <c r="I52" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J52" t="n">
         <v>1</v>
@@ -3215,10 +3207,10 @@
         <v>0</v>
       </c>
       <c r="N52" t="n">
-        <v>5</v>
+        <v>52</v>
       </c>
       <c r="O52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P52" t="n">
         <v>0</v>
@@ -3229,31 +3221,31 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>44986</v>
+        <v>44958</v>
       </c>
       <c r="B53" t="n">
-        <v>650</v>
+        <v>1951</v>
       </c>
       <c r="C53" t="n">
-        <v>1040</v>
+        <v>1998.800048828125</v>
       </c>
       <c r="D53" t="n">
-        <v>650</v>
+        <v>678.5499877929688</v>
       </c>
       <c r="E53" t="n">
-        <v>867.75</v>
+        <v>678.5499877929688</v>
       </c>
       <c r="F53" t="n">
-        <v>867.4155883789062</v>
+        <v>678.2885131835938</v>
       </c>
       <c r="G53" t="n">
-        <v>53405480</v>
+        <v>14934133</v>
       </c>
       <c r="H53" t="n">
         <v>2023</v>
       </c>
       <c r="I53" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J53" t="n">
         <v>1</v>
@@ -3268,7 +3260,7 @@
         <v>0</v>
       </c>
       <c r="N53" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="O53" t="n">
         <v>0</v>
@@ -3282,31 +3274,31 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>45017</v>
+        <v>44986</v>
       </c>
       <c r="B54" t="n">
-        <v>872.9500122070312</v>
+        <v>650</v>
       </c>
       <c r="C54" t="n">
-        <v>994</v>
+        <v>1040</v>
       </c>
       <c r="D54" t="n">
-        <v>805</v>
+        <v>650</v>
       </c>
       <c r="E54" t="n">
-        <v>945</v>
+        <v>867.75</v>
       </c>
       <c r="F54" t="n">
-        <v>944.6358642578125</v>
+        <v>867.4155883789062</v>
       </c>
       <c r="G54" t="n">
-        <v>14503509</v>
+        <v>53405480</v>
       </c>
       <c r="H54" t="n">
         <v>2023</v>
       </c>
       <c r="I54" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J54" t="n">
         <v>1</v>
@@ -3321,7 +3313,7 @@
         <v>0</v>
       </c>
       <c r="N54" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="O54" t="n">
         <v>0</v>
@@ -3335,31 +3327,31 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>45047</v>
+        <v>45017</v>
       </c>
       <c r="B55" t="n">
+        <v>872.9500122070312</v>
+      </c>
+      <c r="C55" t="n">
+        <v>994</v>
+      </c>
+      <c r="D55" t="n">
+        <v>805</v>
+      </c>
+      <c r="E55" t="n">
         <v>945</v>
       </c>
-      <c r="C55" t="n">
-        <v>990</v>
-      </c>
-      <c r="D55" t="n">
-        <v>633.3499755859375</v>
-      </c>
-      <c r="E55" t="n">
-        <v>664.1500244140625</v>
-      </c>
       <c r="F55" t="n">
-        <v>663.8941040039062</v>
+        <v>944.6358642578125</v>
       </c>
       <c r="G55" t="n">
-        <v>80524503</v>
+        <v>14503509</v>
       </c>
       <c r="H55" t="n">
         <v>2023</v>
       </c>
       <c r="I55" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J55" t="n">
         <v>1</v>
@@ -3374,7 +3366,7 @@
         <v>0</v>
       </c>
       <c r="N55" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="O55" t="n">
         <v>0</v>
@@ -3383,36 +3375,36 @@
         <v>0</v>
       </c>
       <c r="Q55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>45078</v>
+        <v>45047</v>
       </c>
       <c r="B56" t="n">
-        <v>653</v>
+        <v>945</v>
       </c>
       <c r="C56" t="n">
-        <v>702.4000244140625</v>
+        <v>990</v>
       </c>
       <c r="D56" t="n">
-        <v>620.0499877929688</v>
+        <v>633.3499755859375</v>
       </c>
       <c r="E56" t="n">
-        <v>654.5999755859375</v>
+        <v>664.1500244140625</v>
       </c>
       <c r="F56" t="n">
-        <v>654.3477172851562</v>
+        <v>663.8941040039062</v>
       </c>
       <c r="G56" t="n">
-        <v>45130200</v>
+        <v>80524503</v>
       </c>
       <c r="H56" t="n">
         <v>2023</v>
       </c>
       <c r="I56" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J56" t="n">
         <v>1</v>
@@ -3427,7 +3419,7 @@
         <v>0</v>
       </c>
       <c r="N56" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="O56" t="n">
         <v>0</v>
@@ -3436,36 +3428,36 @@
         <v>0</v>
       </c>
       <c r="Q56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>45108</v>
+        <v>45078</v>
       </c>
       <c r="B57" t="n">
-        <v>664</v>
+        <v>653</v>
       </c>
       <c r="C57" t="n">
-        <v>678.4000244140625</v>
+        <v>702.4000244140625</v>
       </c>
       <c r="D57" t="n">
-        <v>625</v>
+        <v>620.0499877929688</v>
       </c>
       <c r="E57" t="n">
-        <v>663.7000122070312</v>
+        <v>654.5999755859375</v>
       </c>
       <c r="F57" t="n">
-        <v>663.4442749023438</v>
+        <v>654.3477172851562</v>
       </c>
       <c r="G57" t="n">
-        <v>14970245</v>
+        <v>45130200</v>
       </c>
       <c r="H57" t="n">
         <v>2023</v>
       </c>
       <c r="I57" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J57" t="n">
         <v>1</v>
@@ -3480,7 +3472,7 @@
         <v>0</v>
       </c>
       <c r="N57" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="O57" t="n">
         <v>0</v>
@@ -3494,31 +3486,31 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>45139</v>
+        <v>45108</v>
       </c>
       <c r="B58" t="n">
-        <v>667.9500122070312</v>
+        <v>664</v>
       </c>
       <c r="C58" t="n">
-        <v>686</v>
+        <v>678.4000244140625</v>
       </c>
       <c r="D58" t="n">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="E58" t="n">
-        <v>635.7999877929688</v>
+        <v>663.7000122070312</v>
       </c>
       <c r="F58" t="n">
-        <v>635.7999877929688</v>
+        <v>663.4442749023438</v>
       </c>
       <c r="G58" t="n">
-        <v>17621282</v>
+        <v>14970245</v>
       </c>
       <c r="H58" t="n">
         <v>2023</v>
       </c>
       <c r="I58" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J58" t="n">
         <v>1</v>
@@ -3533,7 +3525,7 @@
         <v>0</v>
       </c>
       <c r="N58" t="n">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="O58" t="n">
         <v>0</v>
@@ -3547,31 +3539,31 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>45170</v>
+        <v>45139</v>
       </c>
       <c r="B59" t="n">
-        <v>625.1500244140625</v>
+        <v>667.9500122070312</v>
       </c>
       <c r="C59" t="n">
-        <v>673.0499877929688</v>
+        <v>686</v>
       </c>
       <c r="D59" t="n">
-        <v>611.0499877929688</v>
+        <v>626</v>
       </c>
       <c r="E59" t="n">
-        <v>613.25</v>
+        <v>635.7999877929688</v>
       </c>
       <c r="F59" t="n">
-        <v>613.25</v>
+        <v>635.7999877929688</v>
       </c>
       <c r="G59" t="n">
-        <v>11522026</v>
+        <v>17621282</v>
       </c>
       <c r="H59" t="n">
         <v>2023</v>
       </c>
       <c r="I59" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J59" t="n">
         <v>1</v>
@@ -3586,7 +3578,7 @@
         <v>0</v>
       </c>
       <c r="N59" t="n">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="O59" t="n">
         <v>0</v>
@@ -3600,31 +3592,31 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>45200</v>
+        <v>45170</v>
       </c>
       <c r="B60" t="n">
+        <v>625.1500244140625</v>
+      </c>
+      <c r="C60" t="n">
+        <v>673.0499877929688</v>
+      </c>
+      <c r="D60" t="n">
+        <v>611.0499877929688</v>
+      </c>
+      <c r="E60" t="n">
         <v>613.25</v>
       </c>
-      <c r="C60" t="n">
-        <v>629.75</v>
-      </c>
-      <c r="D60" t="n">
-        <v>522</v>
-      </c>
-      <c r="E60" t="n">
-        <v>564.2999877929688</v>
-      </c>
       <c r="F60" t="n">
-        <v>564.2999877929688</v>
+        <v>613.25</v>
       </c>
       <c r="G60" t="n">
-        <v>20848203</v>
+        <v>11522026</v>
       </c>
       <c r="H60" t="n">
         <v>2023</v>
       </c>
       <c r="I60" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J60" t="n">
         <v>1</v>
@@ -3639,10 +3631,10 @@
         <v>0</v>
       </c>
       <c r="N60" t="n">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="O60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P60" t="n">
         <v>0</v>
@@ -3653,31 +3645,31 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>45231</v>
+        <v>45200</v>
       </c>
       <c r="B61" t="n">
-        <v>570</v>
+        <v>613.25</v>
       </c>
       <c r="C61" t="n">
-        <v>760</v>
+        <v>629.75</v>
       </c>
       <c r="D61" t="n">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="E61" t="n">
-        <v>708.7999877929688</v>
+        <v>564.2999877929688</v>
       </c>
       <c r="F61" t="n">
-        <v>708.7999877929688</v>
+        <v>564.2999877929688</v>
       </c>
       <c r="G61" t="n">
-        <v>41650392</v>
+        <v>20848203</v>
       </c>
       <c r="H61" t="n">
         <v>2023</v>
       </c>
       <c r="I61" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J61" t="n">
         <v>1</v>
@@ -3692,10 +3684,10 @@
         <v>0</v>
       </c>
       <c r="N61" t="n">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="O61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P61" t="n">
         <v>0</v>
@@ -3706,31 +3698,31 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>45261</v>
+        <v>45231</v>
       </c>
       <c r="B62" t="n">
-        <v>716.7000122070312</v>
+        <v>570</v>
       </c>
       <c r="C62" t="n">
-        <v>1259.400024414062</v>
+        <v>760</v>
       </c>
       <c r="D62" t="n">
-        <v>697.0499877929688</v>
+        <v>527</v>
       </c>
       <c r="E62" t="n">
-        <v>987.9500122070312</v>
+        <v>708.7999877929688</v>
       </c>
       <c r="F62" t="n">
-        <v>987.9500122070312</v>
+        <v>708.7999877929688</v>
       </c>
       <c r="G62" t="n">
-        <v>147014696</v>
+        <v>41650392</v>
       </c>
       <c r="H62" t="n">
         <v>2023</v>
       </c>
       <c r="I62" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J62" t="n">
         <v>1</v>
@@ -3745,10 +3737,10 @@
         <v>0</v>
       </c>
       <c r="N62" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="O62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P62" t="n">
         <v>0</v>
@@ -3759,31 +3751,31 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>45292</v>
+        <v>45261</v>
       </c>
       <c r="B63" t="n">
-        <v>992.4000244140625</v>
+        <v>716.7000122070312</v>
       </c>
       <c r="C63" t="n">
-        <v>1159.800048828125</v>
+        <v>1259.400024414062</v>
       </c>
       <c r="D63" t="n">
-        <v>972.4500122070312</v>
+        <v>697.0499877929688</v>
       </c>
       <c r="E63" t="n">
-        <v>1012.349975585938</v>
+        <v>987.9500122070312</v>
       </c>
       <c r="F63" t="n">
-        <v>1012.349975585938</v>
+        <v>987.9500122070312</v>
       </c>
       <c r="G63" t="n">
-        <v>55591033</v>
+        <v>147014696</v>
       </c>
       <c r="H63" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="I63" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="J63" t="n">
         <v>1</v>
@@ -3798,10 +3790,10 @@
         <v>0</v>
       </c>
       <c r="N63" t="n">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="O63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P63" t="n">
         <v>0</v>
@@ -3812,31 +3804,31 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>45323</v>
+        <v>45292</v>
       </c>
       <c r="B64" t="n">
-        <v>1018.299987792969</v>
+        <v>992.4000244140625</v>
       </c>
       <c r="C64" t="n">
-        <v>1096</v>
+        <v>1159.800048828125</v>
       </c>
       <c r="D64" t="n">
-        <v>983</v>
+        <v>972.4500122070312</v>
       </c>
       <c r="E64" t="n">
-        <v>1025.650024414062</v>
+        <v>1012.349975585938</v>
       </c>
       <c r="F64" t="n">
-        <v>1025.650024414062</v>
+        <v>1012.349975585938</v>
       </c>
       <c r="G64" t="n">
-        <v>75128365</v>
+        <v>55591033</v>
       </c>
       <c r="H64" t="n">
         <v>2024</v>
       </c>
       <c r="I64" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J64" t="n">
         <v>1</v>
@@ -3851,7 +3843,7 @@
         <v>0</v>
       </c>
       <c r="N64" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O64" t="n">
         <v>0</v>
@@ -3860,36 +3852,36 @@
         <v>0</v>
       </c>
       <c r="Q64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>45352</v>
+        <v>45323</v>
       </c>
       <c r="B65" t="n">
-        <v>1033</v>
+        <v>1018.299987792969</v>
       </c>
       <c r="C65" t="n">
-        <v>1053.849975585938</v>
+        <v>1096</v>
       </c>
       <c r="D65" t="n">
-        <v>846.5499877929688</v>
+        <v>983</v>
       </c>
       <c r="E65" t="n">
-        <v>926.5499877929688</v>
+        <v>1025.650024414062</v>
       </c>
       <c r="F65" t="n">
-        <v>926.5499877929688</v>
+        <v>1025.650024414062</v>
       </c>
       <c r="G65" t="n">
-        <v>59651612</v>
+        <v>75128365</v>
       </c>
       <c r="H65" t="n">
         <v>2024</v>
       </c>
       <c r="I65" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J65" t="n">
         <v>1</v>
@@ -3904,7 +3896,7 @@
         <v>0</v>
       </c>
       <c r="N65" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="O65" t="n">
         <v>0</v>
@@ -3913,36 +3905,36 @@
         <v>0</v>
       </c>
       <c r="Q65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="B66" t="n">
-        <v>947.9500122070312</v>
+        <v>1033</v>
       </c>
       <c r="C66" t="n">
-        <v>1000</v>
+        <v>1053.849975585938</v>
       </c>
       <c r="D66" t="n">
-        <v>898</v>
+        <v>846.5499877929688</v>
       </c>
       <c r="E66" t="n">
-        <v>929.0999755859375</v>
+        <v>926.5499877929688</v>
       </c>
       <c r="F66" t="n">
-        <v>929.0999755859375</v>
+        <v>926.5499877929688</v>
       </c>
       <c r="G66" t="n">
-        <v>26690038</v>
+        <v>59651612</v>
       </c>
       <c r="H66" t="n">
         <v>2024</v>
       </c>
       <c r="I66" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J66" t="n">
         <v>1</v>
@@ -3957,7 +3949,7 @@
         <v>0</v>
       </c>
       <c r="N66" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="O66" t="n">
         <v>0</v>
@@ -3966,36 +3958,36 @@
         <v>0</v>
       </c>
       <c r="Q66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>45413</v>
+        <v>45383</v>
       </c>
       <c r="B67" t="n">
+        <v>947.9500122070312</v>
+      </c>
+      <c r="C67" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D67" t="n">
+        <v>898</v>
+      </c>
+      <c r="E67" t="n">
         <v>929.0999755859375</v>
       </c>
-      <c r="C67" t="n">
-        <v>1060</v>
-      </c>
-      <c r="D67" t="n">
-        <v>849.0999755859375</v>
-      </c>
-      <c r="E67" t="n">
-        <v>1039.300048828125</v>
-      </c>
       <c r="F67" t="n">
-        <v>1039.300048828125</v>
+        <v>929.0999755859375</v>
       </c>
       <c r="G67" t="n">
-        <v>45824908</v>
+        <v>26690038</v>
       </c>
       <c r="H67" t="n">
         <v>2024</v>
       </c>
       <c r="I67" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J67" t="n">
         <v>1</v>
@@ -4010,7 +4002,7 @@
         <v>0</v>
       </c>
       <c r="N67" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="O67" t="n">
         <v>0</v>
@@ -4019,61 +4011,519 @@
         <v>0</v>
       </c>
       <c r="Q67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>45444</v>
+        <v>45413</v>
       </c>
       <c r="B68" t="n">
-        <v>1190</v>
+        <v>929.0999755859375</v>
       </c>
       <c r="C68" t="n">
-        <v>1190</v>
+        <v>1060</v>
       </c>
       <c r="D68" t="n">
-        <v>824.25</v>
+        <v>849.0999755859375</v>
       </c>
       <c r="E68" t="n">
-        <v>978.0999755859375</v>
+        <v>1039.300048828125</v>
       </c>
       <c r="F68" t="n">
-        <v>978.0999755859375</v>
+        <v>1039.300048828125</v>
       </c>
       <c r="G68" t="n">
-        <v>35098290</v>
+        <v>45824908</v>
       </c>
       <c r="H68" t="n">
         <v>2024</v>
       </c>
       <c r="I68" t="n">
+        <v>5</v>
+      </c>
+      <c r="J68" t="n">
+        <v>1</v>
+      </c>
+      <c r="K68" t="n">
+        <v>0</v>
+      </c>
+      <c r="L68" t="n">
+        <v>0</v>
+      </c>
+      <c r="M68" t="n">
+        <v>0</v>
+      </c>
+      <c r="N68" t="n">
+        <v>18</v>
+      </c>
+      <c r="O68" t="n">
+        <v>0</v>
+      </c>
+      <c r="P68" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>45444</v>
+      </c>
+      <c r="B69" t="n">
+        <v>1190</v>
+      </c>
+      <c r="C69" t="n">
+        <v>1190</v>
+      </c>
+      <c r="D69" t="n">
+        <v>824.25</v>
+      </c>
+      <c r="E69" t="n">
+        <v>978.0999755859375</v>
+      </c>
+      <c r="F69" t="n">
+        <v>978.0999755859375</v>
+      </c>
+      <c r="G69" t="n">
+        <v>35098290</v>
+      </c>
+      <c r="H69" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I69" t="n">
         <v>6</v>
       </c>
-      <c r="J68" t="n">
-        <v>1</v>
-      </c>
-      <c r="K68" t="n">
-        <v>0</v>
-      </c>
-      <c r="L68" t="n">
-        <v>0</v>
-      </c>
-      <c r="M68" t="n">
-        <v>0</v>
-      </c>
-      <c r="N68" t="n">
+      <c r="J69" t="n">
+        <v>1</v>
+      </c>
+      <c r="K69" t="n">
+        <v>0</v>
+      </c>
+      <c r="L69" t="n">
+        <v>0</v>
+      </c>
+      <c r="M69" t="n">
+        <v>0</v>
+      </c>
+      <c r="N69" t="n">
         <v>22</v>
       </c>
-      <c r="O68" t="n">
-        <v>0</v>
-      </c>
-      <c r="P68" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q68" t="n">
-        <v>0</v>
-      </c>
+      <c r="O69" t="n">
+        <v>0</v>
+      </c>
+      <c r="P69" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>45474</v>
+      </c>
+      <c r="B70" t="n">
+        <v>896.5499877929688</v>
+      </c>
+      <c r="C70" t="n">
+        <v>938</v>
+      </c>
+      <c r="D70" t="n">
+        <v>857</v>
+      </c>
+      <c r="E70" t="n">
+        <v>895.5499877929688</v>
+      </c>
+      <c r="F70" t="inlineStr"/>
+      <c r="G70" t="n">
+        <v>45982900</v>
+      </c>
+      <c r="H70" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I70" t="n">
+        <v>7</v>
+      </c>
+      <c r="J70" t="n">
+        <v>1</v>
+      </c>
+      <c r="K70" t="n">
+        <v>0</v>
+      </c>
+      <c r="L70" t="n">
+        <v>0</v>
+      </c>
+      <c r="M70" t="n">
+        <v>0</v>
+      </c>
+      <c r="N70" t="n">
+        <v>27</v>
+      </c>
+      <c r="O70" t="inlineStr"/>
+      <c r="P70" t="inlineStr"/>
+      <c r="Q70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>45505</v>
+      </c>
+      <c r="B71" t="n">
+        <v>883</v>
+      </c>
+      <c r="C71" t="n">
+        <v>941.9000244140625</v>
+      </c>
+      <c r="D71" t="n">
+        <v>752.3499755859375</v>
+      </c>
+      <c r="E71" t="n">
+        <v>830.3499755859375</v>
+      </c>
+      <c r="F71" t="inlineStr"/>
+      <c r="G71" t="n">
+        <v>82289930</v>
+      </c>
+      <c r="H71" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I71" t="n">
+        <v>8</v>
+      </c>
+      <c r="J71" t="n">
+        <v>1</v>
+      </c>
+      <c r="K71" t="n">
+        <v>0</v>
+      </c>
+      <c r="L71" t="n">
+        <v>0</v>
+      </c>
+      <c r="M71" t="n">
+        <v>0</v>
+      </c>
+      <c r="N71" t="n">
+        <v>31</v>
+      </c>
+      <c r="O71" t="inlineStr"/>
+      <c r="P71" t="inlineStr"/>
+      <c r="Q71" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>45536</v>
+      </c>
+      <c r="B72" t="n">
+        <v>832</v>
+      </c>
+      <c r="C72" t="n">
+        <v>858.9500122070312</v>
+      </c>
+      <c r="D72" t="n">
+        <v>773.0499877929688</v>
+      </c>
+      <c r="E72" t="n">
+        <v>786.5</v>
+      </c>
+      <c r="F72" t="inlineStr"/>
+      <c r="G72" t="n">
+        <v>28746451</v>
+      </c>
+      <c r="H72" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I72" t="n">
+        <v>9</v>
+      </c>
+      <c r="J72" t="n">
+        <v>1</v>
+      </c>
+      <c r="K72" t="n">
+        <v>0</v>
+      </c>
+      <c r="L72" t="n">
+        <v>0</v>
+      </c>
+      <c r="M72" t="n">
+        <v>0</v>
+      </c>
+      <c r="N72" t="n">
+        <v>35</v>
+      </c>
+      <c r="O72" t="inlineStr"/>
+      <c r="P72" t="inlineStr"/>
+      <c r="Q72" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>45566</v>
+      </c>
+      <c r="B73" t="n">
+        <v>784.0499877929688</v>
+      </c>
+      <c r="C73" t="n">
+        <v>794.3499755859375</v>
+      </c>
+      <c r="D73" t="n">
+        <v>682.25</v>
+      </c>
+      <c r="E73" t="n">
+        <v>718.3499755859375</v>
+      </c>
+      <c r="F73" t="inlineStr"/>
+      <c r="G73" t="n">
+        <v>14433821</v>
+      </c>
+      <c r="H73" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I73" t="n">
+        <v>10</v>
+      </c>
+      <c r="J73" t="n">
+        <v>1</v>
+      </c>
+      <c r="K73" t="n">
+        <v>0</v>
+      </c>
+      <c r="L73" t="n">
+        <v>0</v>
+      </c>
+      <c r="M73" t="n">
+        <v>0</v>
+      </c>
+      <c r="N73" t="n">
+        <v>40</v>
+      </c>
+      <c r="O73" t="inlineStr"/>
+      <c r="P73" t="inlineStr"/>
+      <c r="Q73" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>45597</v>
+      </c>
+      <c r="B74" t="n">
+        <v>721.7999877929688</v>
+      </c>
+      <c r="C74" t="n">
+        <v>862</v>
+      </c>
+      <c r="D74" t="n">
+        <v>545.75</v>
+      </c>
+      <c r="E74" t="n">
+        <v>812.3499755859375</v>
+      </c>
+      <c r="F74" t="inlineStr"/>
+      <c r="G74" t="n">
+        <v>73227788</v>
+      </c>
+      <c r="H74" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I74" t="n">
+        <v>11</v>
+      </c>
+      <c r="J74" t="n">
+        <v>1</v>
+      </c>
+      <c r="K74" t="n">
+        <v>0</v>
+      </c>
+      <c r="L74" t="n">
+        <v>0</v>
+      </c>
+      <c r="M74" t="n">
+        <v>0</v>
+      </c>
+      <c r="N74" t="n">
+        <v>44</v>
+      </c>
+      <c r="O74" t="inlineStr"/>
+      <c r="P74" t="inlineStr"/>
+      <c r="Q74" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>45627</v>
+      </c>
+      <c r="B75" t="n">
+        <v>812</v>
+      </c>
+      <c r="C75" t="n">
+        <v>815.2999877929688</v>
+      </c>
+      <c r="D75" t="n">
+        <v>665.25</v>
+      </c>
+      <c r="E75" t="n">
+        <v>761.0499877929688</v>
+      </c>
+      <c r="F75" t="inlineStr"/>
+      <c r="G75" t="n">
+        <v>37416593</v>
+      </c>
+      <c r="H75" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I75" t="n">
+        <v>12</v>
+      </c>
+      <c r="J75" t="n">
+        <v>1</v>
+      </c>
+      <c r="K75" t="n">
+        <v>0</v>
+      </c>
+      <c r="L75" t="n">
+        <v>0</v>
+      </c>
+      <c r="M75" t="n">
+        <v>0</v>
+      </c>
+      <c r="N75" t="n">
+        <v>48</v>
+      </c>
+      <c r="O75" t="inlineStr"/>
+      <c r="P75" t="inlineStr"/>
+      <c r="Q75" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>45658</v>
+      </c>
+      <c r="B76" t="n">
+        <v>751</v>
+      </c>
+      <c r="C76" t="n">
+        <v>766.5999755859375</v>
+      </c>
+      <c r="D76" t="n">
+        <v>607.4000244140625</v>
+      </c>
+      <c r="E76" t="n">
+        <v>643.0999755859375</v>
+      </c>
+      <c r="F76" t="inlineStr"/>
+      <c r="G76" t="n">
+        <v>35323347</v>
+      </c>
+      <c r="H76" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I76" t="n">
+        <v>1</v>
+      </c>
+      <c r="J76" t="n">
+        <v>1</v>
+      </c>
+      <c r="K76" t="n">
+        <v>0</v>
+      </c>
+      <c r="L76" t="n">
+        <v>0</v>
+      </c>
+      <c r="M76" t="n">
+        <v>0</v>
+      </c>
+      <c r="N76" t="n">
+        <v>1</v>
+      </c>
+      <c r="O76" t="inlineStr"/>
+      <c r="P76" t="inlineStr"/>
+      <c r="Q76" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>45689</v>
+      </c>
+      <c r="B77" t="n">
+        <v>647.5</v>
+      </c>
+      <c r="C77" t="n">
+        <v>654.4000244140625</v>
+      </c>
+      <c r="D77" t="n">
+        <v>555</v>
+      </c>
+      <c r="E77" t="n">
+        <v>557.1500244140625</v>
+      </c>
+      <c r="F77" t="inlineStr"/>
+      <c r="G77" t="n">
+        <v>13701849</v>
+      </c>
+      <c r="H77" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I77" t="n">
+        <v>2</v>
+      </c>
+      <c r="J77" t="n">
+        <v>1</v>
+      </c>
+      <c r="K77" t="n">
+        <v>0</v>
+      </c>
+      <c r="L77" t="n">
+        <v>0</v>
+      </c>
+      <c r="M77" t="n">
+        <v>0</v>
+      </c>
+      <c r="N77" t="n">
+        <v>5</v>
+      </c>
+      <c r="O77" t="inlineStr"/>
+      <c r="P77" t="inlineStr"/>
+      <c r="Q77" t="inlineStr"/>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>45717</v>
+      </c>
+      <c r="B78" t="n">
+        <v>559.4000244140625</v>
+      </c>
+      <c r="C78" t="n">
+        <v>641.9000244140625</v>
+      </c>
+      <c r="D78" t="n">
+        <v>532.5999755859375</v>
+      </c>
+      <c r="E78" t="n">
+        <v>602.5999755859375</v>
+      </c>
+      <c r="F78" t="inlineStr"/>
+      <c r="G78" t="n">
+        <v>24970556</v>
+      </c>
+      <c r="H78" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I78" t="n">
+        <v>3</v>
+      </c>
+      <c r="J78" t="n">
+        <v>1</v>
+      </c>
+      <c r="K78" t="n">
+        <v>0</v>
+      </c>
+      <c r="L78" t="n">
+        <v>0</v>
+      </c>
+      <c r="M78" t="n">
+        <v>0</v>
+      </c>
+      <c r="N78" t="n">
+        <v>9</v>
+      </c>
+      <c r="O78" t="inlineStr"/>
+      <c r="P78" t="inlineStr"/>
+      <c r="Q78" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
